--- a/server/App/assets/receiptGeneration.xlsx
+++ b/server/App/assets/receiptGeneration.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
   <si>
     <t>भारतीय धरोहर "वैद्यशाला"</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>Cash Receipt for Prakriti Parikshan</t>
+  </si>
+  <si>
+    <t>Bill No.</t>
   </si>
   <si>
     <t>ID No.</t>
@@ -131,7 +134,7 @@
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,13 +225,6 @@
       <color theme="1"/>
       <name val="DevLys 010"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -740,138 +736,138 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -889,12 +885,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -902,6 +898,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -950,7 +952,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1100,7 +1101,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5361940" y="241300"/>
+          <a:off x="5430520" y="241300"/>
           <a:ext cx="651510" cy="621030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1178,7 +1179,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5339715" y="4486910"/>
+          <a:off x="5408295" y="4486910"/>
           <a:ext cx="651510" cy="624840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1619,14 +1620,14 @@
   <sheetPr/>
   <dimension ref="A2:T48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="8.66666666666667" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="1" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="10.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
@@ -1691,159 +1692,161 @@
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="F7" s="12"/>
       <c r="G7" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="8"/>
+      <c r="I7" s="13"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="32"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="19"/>
-      <c r="I12" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="22"/>
-      <c r="I13" s="32"/>
+        <v>18</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+      <c r="I13" s="33"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="25"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="33"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
     </row>
     <row r="17" ht="19.8" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="27"/>
+      <c r="D17" s="29"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="18" ht="19.2" spans="1:9">
       <c r="A18" s="3"/>
@@ -1852,46 +1855,46 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" ht="19.2" spans="1:9">
-      <c r="A19" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="29"/>
+      <c r="A19" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" ht="19.2" spans="1:9">
-      <c r="A20" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
+      <c r="A20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" ht="19.2" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="27"/>
+      <c r="D21" s="29"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" ht="14.55" customHeight="1" spans="1:9">
       <c r="A22" s="1" t="s">
@@ -1949,159 +1952,161 @@
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="33"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="F27" s="12"/>
       <c r="G27" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="8"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
       <c r="G29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" s="11"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="15"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="32"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="21"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="33"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="I32" s="32"/>
+        <v>17</v>
+      </c>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="21"/>
+      <c r="I32" s="33"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
-      <c r="I33" s="32"/>
+        <v>18</v>
+      </c>
+      <c r="E33" s="19"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+      <c r="I33" s="33"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="23"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="32"/>
+      <c r="D34" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="33"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" ht="19.8" spans="1:9">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="27"/>
+      <c r="D37" s="29"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="G37" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
     </row>
     <row r="38" ht="16.8" spans="1:9">
       <c r="A38" s="3"/>
@@ -2115,140 +2120,140 @@
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
+      <c r="A39" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" ht="19.2" spans="1:8">
-      <c r="A40" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
+      <c r="A40" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
     </row>
     <row r="42" spans="12:20">
       <c r="L42" s="5"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="34"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
       <c r="R42" s="9"/>
       <c r="S42" s="5"/>
-      <c r="T42" s="33"/>
+      <c r="T42" s="34"/>
     </row>
     <row r="43" spans="12:20">
       <c r="L43" s="5"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="8"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="8"/>
+      <c r="Q43" s="13"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="8"/>
-      <c r="T43" s="8"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
     </row>
     <row r="44" spans="12:20">
       <c r="L44" s="5"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="8"/>
-      <c r="P44" s="8"/>
-      <c r="Q44" s="8"/>
-      <c r="R44" s="8"/>
-      <c r="S44" s="8"/>
-      <c r="T44" s="8"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="3"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="32"/>
-      <c r="E46" s="32"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
-      <c r="S46" s="8"/>
-      <c r="T46" s="8"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
     </row>
     <row r="47" ht="19.2" spans="1:20">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="27"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="29"/>
-      <c r="I47" s="29"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="32"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="32"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="36"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
     </row>
     <row r="48" spans="12:20">
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="22"/>
-      <c r="P48" s="36"/>
-      <c r="Q48" s="32"/>
-      <c r="R48" s="32"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="32"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="38">
     <mergeCell ref="A4:I4"/>
     <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:C9"/>
@@ -2262,7 +2267,7 @@
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A24:I24"/>
     <mergeCell ref="D25:F25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="B27:D27"/>
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:C29"/>

--- a/server/App/assets/receiptGeneration.xlsx
+++ b/server/App/assets/receiptGeneration.xlsx
@@ -867,7 +867,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -898,9 +898,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
@@ -1101,7 +1098,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5430520" y="241300"/>
+          <a:off x="5525135" y="241300"/>
           <a:ext cx="651510" cy="621030"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1179,7 +1176,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5408295" y="4486910"/>
+          <a:off x="5502910" y="4486910"/>
           <a:ext cx="651510" cy="624840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1621,18 +1618,18 @@
   <dimension ref="A2:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="16.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="18.0462962962963" customWidth="1"/>
     <col min="3" max="3" width="1" customWidth="1"/>
     <col min="4" max="4" width="18.6666666666667" customWidth="1"/>
     <col min="5" max="5" width="10.2222222222222" customWidth="1"/>
     <col min="6" max="6" width="8.88888888888889" customWidth="1"/>
     <col min="7" max="7" width="10.1111111111111" customWidth="1"/>
-    <col min="8" max="8" width="18.2222222222222" customWidth="1"/>
+    <col min="8" max="8" width="16.6666666666667" customWidth="1"/>
     <col min="9" max="9" width="8.66666666666667" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1701,7 +1698,7 @@
         <v>5</v>
       </c>
       <c r="H6" s="10"/>
-      <c r="I6" s="34"/>
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
@@ -1709,61 +1706,61 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="8"/>
       <c r="G7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="11"/>
-      <c r="I7" s="13"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="11"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="16" t="s">
+      <c r="C10" s="12"/>
+      <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3"/>
@@ -1772,13 +1769,13 @@
       <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="19"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="33"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3"/>
@@ -1787,10 +1784,10 @@
       <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="I12" s="33"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="3"/>
@@ -1799,30 +1796,30 @@
       <c r="D13" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="24"/>
-      <c r="I13" s="33"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="33"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1831,22 +1828,22 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
     </row>
     <row r="17" ht="19.8" spans="1:9">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="29"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="30" t="s">
+      <c r="G17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="18" ht="19.2" spans="1:9">
       <c r="A18" s="3"/>
@@ -1855,46 +1852,46 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
     </row>
     <row r="19" ht="19.2" spans="1:9">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="20" ht="19.2" spans="1:9">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" ht="19.2" spans="1:9">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" ht="14.55" customHeight="1" spans="1:9">
       <c r="A22" s="1" t="s">
@@ -1961,7 +1958,7 @@
         <v>5</v>
       </c>
       <c r="H26" s="10"/>
-      <c r="I26" s="34"/>
+      <c r="I26" s="33"/>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="5" t="s">
@@ -1969,61 +1966,61 @@
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="12"/>
+      <c r="F27" s="8"/>
       <c r="G27" s="9" t="s">
         <v>8</v>
       </c>
       <c r="H27" s="11"/>
-      <c r="I27" s="13"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="15" t="s">
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B30" s="11"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="16" t="s">
+      <c r="C30" s="12"/>
+      <c r="D30" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="17"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="17"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="3"/>
@@ -2032,13 +2029,13 @@
       <c r="D31" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20" t="s">
+      <c r="E31" s="18"/>
+      <c r="F31" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="33"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="3"/>
@@ -2047,10 +2044,10 @@
       <c r="D32" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="21"/>
-      <c r="I32" s="33"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="20"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="3"/>
@@ -2059,30 +2056,30 @@
       <c r="D33" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E33" s="19"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
-      <c r="I33" s="33"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="25"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="33"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="32"/>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
       <c r="F35" s="3" t="s">
         <v>20</v>
       </c>
@@ -2091,22 +2088,22 @@
       <c r="I35" s="3"/>
     </row>
     <row r="36" spans="2:4">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
     </row>
     <row r="37" ht="19.8" spans="1:9">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="29"/>
+      <c r="D37" s="28"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
-      <c r="G37" s="30" t="s">
+      <c r="G37" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
     </row>
     <row r="38" ht="16.8" spans="1:9">
       <c r="A38" s="3"/>
@@ -2120,68 +2117,68 @@
       <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="32" t="s">
+      <c r="A39" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="32"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" ht="19.2" spans="1:8">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B40" s="32"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="32"/>
-      <c r="E40" s="32"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="3"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="42" spans="12:20">
       <c r="L42" s="5"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="34"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
       <c r="R42" s="9"/>
       <c r="S42" s="5"/>
-      <c r="T42" s="34"/>
+      <c r="T42" s="33"/>
     </row>
     <row r="43" spans="12:20">
       <c r="L43" s="5"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="13"/>
-      <c r="O43" s="13"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="12"/>
+      <c r="O43" s="12"/>
       <c r="P43" s="9"/>
-      <c r="Q43" s="13"/>
+      <c r="Q43" s="12"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="13"/>
-      <c r="T43" s="13"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
     </row>
     <row r="44" spans="12:20">
       <c r="L44" s="5"/>
-      <c r="M44" s="13"/>
-      <c r="N44" s="13"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="13"/>
-      <c r="Q44" s="13"/>
-      <c r="R44" s="13"/>
-      <c r="S44" s="13"/>
-      <c r="T44" s="13"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
     </row>
     <row r="45" spans="1:20">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="27"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="3" t="s">
         <v>20</v>
       </c>
@@ -2189,65 +2186,65 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="13"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
       <c r="O45" s="9"/>
-      <c r="P45" s="13"/>
-      <c r="Q45" s="13"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
       <c r="R45" s="5"/>
-      <c r="S45" s="13"/>
-      <c r="T45" s="13"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
     </row>
     <row r="46" spans="1:20">
       <c r="A46" s="3"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="13"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="13"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="13"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
     </row>
     <row r="47" ht="19.2" spans="1:20">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="29"/>
+      <c r="D47" s="28"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="O47" s="27"/>
-      <c r="P47" s="36"/>
-      <c r="Q47" s="38"/>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="37"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
     </row>
     <row r="48" spans="12:20">
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="37"/>
-      <c r="Q48" s="33"/>
-      <c r="R48" s="33"/>
-      <c r="S48" s="33"/>
-      <c r="T48" s="33"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="36"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="38">
